--- a/src/events.xlsx
+++ b/src/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\azulon\cluedo\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D673B1E-F8E4-4E34-B696-C9B8F9A7BAA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACABCC6-2331-4D64-9CB8-E301D64D80C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="182">
   <si>
     <t>ID in</t>
   </si>
@@ -292,11 +292,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">She's really good fun, a practical joker!
-NOT. One does not fuck with S.D. Molly Ochre.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">They say just one glare is enough to dissever.
 A "trip" to her office will change you forever.
 </t>
@@ -307,11 +302,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Researcher Green - his name's that, you're sure -
-Both can be described as a workaholic bore.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">They're both due promotions, en route to the top.
 You remember when Gary's job was a mop.
 </t>
@@ -347,11 +337,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Sixth but not least is yourself, Dr. Plum.
-Personal difficulties you've not yet overcome.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">A cranial injury binds you to your job.
 You can't be promoted. What else did it rob?
 </t>
@@ -384,11 +369,6 @@
   <si>
     <t xml:space="preserve">You try not to stutter, nor hold your breath.
 "I only found it. I did not cause its death."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">She snorts, a sound of derisive disgust.
-She'll never believe you. You're unsure she can trust.
 </t>
   </si>
   <si>
@@ -443,331 +423,359 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">!!
-If you got the weapon right
-She nods. "Very well. Thanks for the recap and
-We can decisively say that that's where it happened."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you got the weapon wrong
-She nods. "Very well. And let's all agree
-That it was killed there without further enquiry.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Because apparently some of us turn a blind eye
 To evidence that's obvious. I don't know why."
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Her face pans the group. All gazes align.
+"Someone here knows they committed this crime."
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's true. The killer is one of the six.
+But there's no possible way to know which.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everyone knows it. Glances are shared.
+But someone's deceit is as yet undeclared.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The first: O5-1 was hit by a car.
+The simplest explanation I have by far.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The second: it was hit on the head by a vase
+With more injuries caused by the shattering glass.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The third: exposure to something the mind won't comprehend.
+Berryman-Langford brings a swift end.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The fourth: a teddy bear came, seeking new parts
+For a child it was making by a gruesome art.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The fifth: SOMETHING ABOUT PIZZA
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sixth: it choked on a piece of SCP-5000.
+But I can't rhyme with that, because it's not the final number.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Obviously right. The chest has been crushed
+The bones and organs inside have been mushed.
+</t>
+  </si>
+  <si>
+    <t>Vehicular manslaughter</t>
+  </si>
+  <si>
+    <t>Blunt force injury</t>
+  </si>
+  <si>
+    <t>Fatal exposure to a memetic agent</t>
+  </si>
+  <si>
+    <t>Reassembled into a child's toy</t>
+  </si>
+  <si>
+    <t>Force-fed pizza</t>
+  </si>
+  <si>
+    <t>Choked on a small object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Obviously right. There's shards everywhere,
+And dirt, too - there was a plant somewhere."
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Obviously right. There's no sign of damage.
+Only mental injuries are this hard to manage."
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Obviously right. It's missing its hands.
+Stolen to fuel 1048's demands."
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Obviously right. Its stomach's exploded.
+The digestive system has been overloaded."
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Obviously right SOMETHING ABOUT CHOKING
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ochre's glare narrows to a fearsome ray.
+She thinks for a moment, then says "Okay."
+</t>
+  </si>
+  <si>
+    <t>murder_method is "car"
+chosen_method is murder_method</t>
+  </si>
+  <si>
+    <t>murder_method is "vase"
+chosen_method is murder_method</t>
+  </si>
+  <si>
+    <t>murder_method is "bl"
+chosen_method is murder_method</t>
+  </si>
+  <si>
+    <t>murder_method is "bear"
+chosen_method is murder_method</t>
+  </si>
+  <si>
+    <t>murder_method is "pizza"
+chosen_method is murder_method</t>
+  </si>
+  <si>
+    <t>murder_method is "choke"
+chosen_method is murder_method</t>
+  </si>
+  <si>
+    <t>murder_method is "choke"</t>
+  </si>
+  <si>
+    <t>murder_method is "vase"</t>
+  </si>
+  <si>
+    <t>murder_method is "bl"</t>
+  </si>
+  <si>
+    <t>murder_method is "car"</t>
+  </si>
+  <si>
+    <t>murder_method is "pizza"</t>
+  </si>
+  <si>
+    <t>murder_method is "bear"</t>
+  </si>
+  <si>
+    <t>chosen_method isnt murder_method</t>
+  </si>
+  <si>
+    <t>discover_crime</t>
+  </si>
+  <si>
+    <t>Plum closeup of shocked face</t>
+  </si>
+  <si>
+    <t>Corpse by staircase</t>
+  </si>
+  <si>
+    <t>examine_body</t>
+  </si>
+  <si>
+    <t>examine_body_2</t>
+  </si>
+  <si>
+    <t>Wider angle, trail visible</t>
+  </si>
+  <si>
+    <t>murder_location is "office"</t>
+  </si>
+  <si>
+    <t>murder_location is "cafeteria"</t>
+  </si>
+  <si>
+    <t>murder_location is "containment"</t>
+  </si>
+  <si>
+    <t>murder_location is "corridor"</t>
+  </si>
+  <si>
+    <t>murder_location is "study"</t>
+  </si>
+  <si>
+    <t>trail_to_office</t>
+  </si>
+  <si>
+    <t>murder_location is "carpark"</t>
+  </si>
+  <si>
+    <t>trail_to_cafeteria</t>
+  </si>
+  <si>
+    <t>trail_to_containment</t>
+  </si>
+  <si>
+    <t>trail_to_carpark</t>
+  </si>
+  <si>
+    <t>trail_to_corridor</t>
+  </si>
+  <si>
+    <t>trail_to_study</t>
+  </si>
+  <si>
+    <t>alert_everyone</t>
+  </si>
+  <si>
+    <t>Plum using phone</t>
+  </si>
+  <si>
+    <t>Gather everyone</t>
+  </si>
+  <si>
+    <t>night_sky</t>
+  </si>
+  <si>
+    <t>(might have to duplicate this one with different appears-ifs and different id pointers instead of having the checks in the next section)</t>
+  </si>
+  <si>
+    <t>Body surrounded</t>
+  </si>
+  <si>
+    <t>gathering_corpse</t>
+  </si>
+  <si>
+    <t>clementine_corpse</t>
+  </si>
+  <si>
+    <t>ochre_corpse</t>
+  </si>
+  <si>
+    <t>green_corpse</t>
+  </si>
+  <si>
+    <t>sky_corpse</t>
+  </si>
+  <si>
+    <t>blood_corpse</t>
+  </si>
+  <si>
+    <t>plum_corpse</t>
+  </si>
+  <si>
+    <t>wait_on_ochre</t>
+  </si>
+  <si>
+    <t>ochre_panic</t>
+  </si>
+  <si>
+    <t>Closeup of Ochre's eyes</t>
+  </si>
+  <si>
+    <t>plum_defend</t>
+  </si>
+  <si>
+    <t>Plum standard closeup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"The O5s are gods. Far beyond one of us.
+How the fuck'd someone throw it under the bus?"
+</t>
+  </si>
+  <si>
+    <t>alex_appear</t>
+  </si>
+  <si>
+    <t>Body surrounded with holographic Alex on wall</t>
+  </si>
+  <si>
+    <t>alex_explain_1</t>
+  </si>
+  <si>
+    <t>Alex closeup</t>
+  </si>
+  <si>
+    <t>alex_explain_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As if O5-1 has been pinned to a wall,
+While someone in front put the pedal to floor."
+</t>
+  </si>
+  <si>
+    <t>ochre_confirm</t>
+  </si>
+  <si>
+    <t>plum_location</t>
+  </si>
+  <si>
+    <t>Background of this FRAME</t>
+  </si>
+  <si>
+    <t>ID of this FRAME. The current frame lasts until the next ID.</t>
+  </si>
+  <si>
+    <t>A LINE to be said in the current FRAME. The current line lasts until the next line, or the end of the frame.</t>
+  </si>
+  <si>
+    <t>When the OPTION is clicked, advance to the FRAME with this ID.</t>
+  </si>
+  <si>
+    <t>The LINE will only appear if this condition is met. Ensure that an OPTION will always appear, regardless of variable status.</t>
+  </si>
+  <si>
+    <t>If this is the last LINE of the FRAME, these OPTIONS will appear. If blank, there will be a single "Next" option.</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She's really good fun, a practical joker!
+NOT. One does //not// fuck with S.D. Molly Ochre.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Researcher Green - his name's that, you're sure -
+Either's described as a workaholic bore.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sixth but not least is yourself, Dr. Plum.
+Personal problems not yet overcome.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She snorts, a sound of derisive disgust.
+She'll never believe you. You're unsure she //can// trust.
+</t>
+  </si>
+  <si>
+    <t>choose_method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She nods. "Very well. Thanks for the recap and
+We can decisively say that that's where it happened."
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She nods. "Very well. And let's all agree
+That it was killed there without further enquiry.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">She looks right at you and a chill chills your spine.
 You have a feeling she's talking about you this time.
-!!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"We know how and where. What question remains?
-We need the who. And why, if it's not inane."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Her face pans the group. All gazes align.
-"Someone here knows they committed this crime."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It's true. The killer is one of the six.
-But there's no possible way to know which.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Everyone knows it. Glances are shared.
-But someone's deceit is as yet undeclared.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The first: O5-1 was hit by a car.
-The simplest explanation I have by far.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The second: it was hit on the head by a vase
-With more injuries caused by the shattering glass.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The third: exposure to something the mind won't comprehend.
-Berryman-Langford brings a swift end.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The fourth: a teddy bear came, seeking new parts
-For a child it was making by a gruesome art.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The fifth: SOMETHING ABOUT PIZZA
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The sixth: it choked on a piece of SCP-5000.
-But I can't rhyme with that, because it's not the final number.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Obviously right. The chest has been crushed
-The bones and organs inside have been mushed.
-</t>
-  </si>
-  <si>
-    <t>Vehicular manslaughter</t>
-  </si>
-  <si>
-    <t>Blunt force injury</t>
-  </si>
-  <si>
-    <t>Fatal exposure to a memetic agent</t>
-  </si>
-  <si>
-    <t>Reassembled into a child's toy</t>
-  </si>
-  <si>
-    <t>Force-fed pizza</t>
-  </si>
-  <si>
-    <t>Choked on a small object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Obviously right. There's shards everywhere,
-And dirt, too - there was a plant somewhere."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Obviously right. There's no sign of damage.
-Only mental injuries are this hard to manage."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Obviously right. It's missing its hands.
-Stolen to fuel 1048's demands."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Obviously right. Its stomach's exploded.
-The digestive system has been overloaded."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Obviously right SOMETHING ABOUT CHOKING
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ochre's glare narrows to a fearsome ray.
-She thinks for a moment, then says "Okay."
-</t>
-  </si>
-  <si>
-    <t>murder_method is "car"
-chosen_method is murder_method</t>
-  </si>
-  <si>
-    <t>murder_method is "vase"
-chosen_method is murder_method</t>
-  </si>
-  <si>
-    <t>murder_method is "bl"
-chosen_method is murder_method</t>
-  </si>
-  <si>
-    <t>murder_method is "bear"
-chosen_method is murder_method</t>
-  </si>
-  <si>
-    <t>murder_method is "pizza"
-chosen_method is murder_method</t>
-  </si>
-  <si>
-    <t>murder_method is "choke"
-chosen_method is murder_method</t>
-  </si>
-  <si>
-    <t>murder_method is "choke"</t>
-  </si>
-  <si>
-    <t>murder_method is "vase"</t>
-  </si>
-  <si>
-    <t>murder_method is "bl"</t>
-  </si>
-  <si>
-    <t>murder_method is "car"</t>
-  </si>
-  <si>
-    <t>murder_method is "pizza"</t>
-  </si>
-  <si>
-    <t>murder_method is "bear"</t>
-  </si>
-  <si>
-    <t>chosen_method isnt murder_method</t>
-  </si>
-  <si>
-    <t>discover_crime</t>
-  </si>
-  <si>
-    <t>Plum closeup of shocked face</t>
-  </si>
-  <si>
-    <t>Corpse by staircase</t>
-  </si>
-  <si>
-    <t>examine_body</t>
-  </si>
-  <si>
-    <t>examine_body_2</t>
-  </si>
-  <si>
-    <t>Wider angle, trail visible</t>
-  </si>
-  <si>
-    <t>murder_location is "office"</t>
-  </si>
-  <si>
-    <t>murder_location is "cafeteria"</t>
-  </si>
-  <si>
-    <t>murder_location is "containment"</t>
-  </si>
-  <si>
-    <t>murder_location is "corridor"</t>
-  </si>
-  <si>
-    <t>murder_location is "study"</t>
-  </si>
-  <si>
-    <t>trail_to_office</t>
-  </si>
-  <si>
-    <t>murder_location is "carpark"</t>
-  </si>
-  <si>
-    <t>trail_to_cafeteria</t>
-  </si>
-  <si>
-    <t>trail_to_containment</t>
-  </si>
-  <si>
-    <t>trail_to_carpark</t>
-  </si>
-  <si>
-    <t>trail_to_corridor</t>
-  </si>
-  <si>
-    <t>trail_to_study</t>
-  </si>
-  <si>
-    <t>alert_everyone</t>
-  </si>
-  <si>
-    <t>Plum using phone</t>
-  </si>
-  <si>
-    <t>Gather everyone</t>
-  </si>
-  <si>
-    <t>night_sky</t>
-  </si>
-  <si>
-    <t>(might have to duplicate this one with different appears-ifs and different id pointers instead of having the checks in the next section)</t>
-  </si>
-  <si>
-    <t>Body surrounded</t>
-  </si>
-  <si>
-    <t>gathering_corpse</t>
-  </si>
-  <si>
-    <t>clementine_corpse</t>
-  </si>
-  <si>
-    <t>ochre_corpse</t>
-  </si>
-  <si>
-    <t>green_corpse</t>
-  </si>
-  <si>
-    <t>sky_corpse</t>
-  </si>
-  <si>
-    <t>blood_corpse</t>
-  </si>
-  <si>
-    <t>plum_corpse</t>
-  </si>
-  <si>
-    <t>wait_on_ochre</t>
-  </si>
-  <si>
-    <t>ochre_panic</t>
-  </si>
-  <si>
-    <t>Closeup of Ochre's eyes</t>
-  </si>
-  <si>
-    <t>plum_defend</t>
-  </si>
-  <si>
-    <t>Plum standard closeup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"The O5s are gods. Far beyond one of us.
-How the fuck'd someone throw it under the bus?"
-</t>
-  </si>
-  <si>
-    <t>alex_appear</t>
-  </si>
-  <si>
-    <t>Body surrounded with holographic Alex on wall</t>
-  </si>
-  <si>
-    <t>alex_explain_1</t>
-  </si>
-  <si>
-    <t>Alex closeup</t>
-  </si>
-  <si>
-    <t>alex_explain_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As if O5-1 has been pinned to a wall,
-While someone in front put the pedal to floor."
-</t>
-  </si>
-  <si>
-    <t>ochre_confirm</t>
-  </si>
-  <si>
-    <t>plum_location</t>
-  </si>
-  <si>
-    <t>Background of this FRAME</t>
-  </si>
-  <si>
-    <t>ID of this FRAME. The current frame lasts until the next ID.</t>
-  </si>
-  <si>
-    <t>A LINE to be said in the current FRAME. The current line lasts until the next line, or the end of the frame.</t>
-  </si>
-  <si>
-    <t>When the OPTION is clicked, advance to the FRAME with this ID.</t>
-  </si>
-  <si>
-    <t>The LINE will only appear if this condition is met. Ensure that an OPTION will always appear, regardless of variable status.</t>
-  </si>
-  <si>
-    <t>If this is the last LINE of the FRAME, these OPTIONS will appear. If blank, there will be a single "Next" option.</t>
+</t>
+  </si>
+  <si>
+    <t>murder_method is chosen_method</t>
+  </si>
+  <si>
+    <t>murder_method isnt chosen_method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"We know //how// and //where//. What question remains?
+We need the //who//. And //why//, if it's not inane."
+</t>
   </si>
 </sst>
 </file>
@@ -1384,10 +1392,10 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1441,23 +1449,23 @@
     </row>
     <row r="2" spans="1:11" s="13" customFormat="1" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="13" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
@@ -1505,6 +1513,9 @@
       <c r="A8" s="9" t="s">
         <v>32</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
@@ -1516,10 +1527,10 @@
     </row>
     <row r="10" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -1530,7 +1541,7 @@
         <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>30</v>
@@ -1546,12 +1557,12 @@
         <v>28</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>29</v>
@@ -1567,10 +1578,10 @@
         <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
@@ -1578,10 +1589,10 @@
         <v>14</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
@@ -1589,10 +1600,10 @@
         <v>15</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
@@ -1600,10 +1611,10 @@
         <v>16</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
@@ -1611,10 +1622,10 @@
         <v>17</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
@@ -1622,18 +1633,18 @@
         <v>18</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>19</v>
@@ -1645,18 +1656,18 @@
         <v>37</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
@@ -1664,18 +1675,18 @@
         <v>39</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
@@ -1683,18 +1694,18 @@
         <v>41</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
@@ -1702,48 +1713,48 @@
         <v>43</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>47</v>
@@ -1759,12 +1770,12 @@
         <v>49</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>50</v>
@@ -1777,10 +1788,10 @@
     </row>
     <row r="38" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>52</v>
@@ -1788,12 +1799,12 @@
     </row>
     <row r="39" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D39" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>53</v>
@@ -1811,7 +1822,7 @@
     </row>
     <row r="43" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>56</v>
@@ -1819,379 +1830,394 @@
     </row>
     <row r="44" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D44" s="3" t="s">
-        <v>57</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D45" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D47" s="3" t="s">
-        <v>60</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D48" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D50" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D51" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D53" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D54" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>68</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D56" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D57" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D60" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D61" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D63" s="3" t="s">
-        <v>76</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D65" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D66" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D68" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D70" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
       <c r="D71" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D72" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="D73" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
       <c r="D74" s="3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D75" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>175</v>
+      </c>
       <c r="D76" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D77" s="3"/>
       <c r="F77" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="D78" s="3"/>
       <c r="F78" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D79" s="3"/>
       <c r="F79" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D80" s="3"/>
       <c r="F80" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D81" s="3"/>
       <c r="F81" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D83" s="3" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D84" s="3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D85" s="3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D86" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D87" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D88" s="3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="D89" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D90" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D91" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D93" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D94" s="3" t="s">
-        <v>88</v>
+        <v>177</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D95" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D96" s="3" t="s">
-        <v>90</v>
+        <v>178</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="97" spans="4:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D97" s="3" t="s">
-        <v>91</v>
+        <v>181</v>
       </c>
     </row>
     <row r="98" spans="4:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D98" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="99" spans="4:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D99" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="100" spans="4:4" ht="55.2" x14ac:dyDescent="0.25">
       <c r="D100" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/src/events.xlsx
+++ b/src/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\azulon\cluedo\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACABCC6-2331-4D64-9CB8-E301D64D80C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D8C72A-39C1-4B8E-BE97-23BC02BA0961}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -720,9 +720,6 @@
     <t>When the OPTION is clicked, advance to the FRAME with this ID.</t>
   </si>
   <si>
-    <t>The LINE will only appear if this condition is met. Ensure that an OPTION will always appear, regardless of variable status.</t>
-  </si>
-  <si>
     <t>If this is the last LINE of the FRAME, these OPTIONS will appear. If blank, there will be a single "Next" option.</t>
   </si>
   <si>
@@ -776,6 +773,9 @@
     <t xml:space="preserve">"We know //how// and //where//. What question remains?
 We need the //who//. And //why//, if it's not inane."
 </t>
+  </si>
+  <si>
+    <t>The OPTION will only appear if this condition is met. If a LINE has no options that will appear, it will not appear at all.</t>
   </si>
 </sst>
 </file>
@@ -928,13 +928,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -945,7 +945,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{8217AA4A-92D9-4D13-A3BC-71C24F941B31}"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -971,104 +971,6 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFECF4FA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFAEB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1392,10 +1294,10 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D100" sqref="D100"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1404,8 +1306,8 @@
     <col min="2" max="2" width="19.88671875" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="61.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="38.88671875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="32.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="38.88671875" style="2" customWidth="1"/>
     <col min="7" max="7" width="22.77734375" style="1" customWidth="1"/>
     <col min="8" max="8" width="6.77734375" style="4" customWidth="1"/>
     <col min="9" max="11" width="25.88671875" style="1" customWidth="1"/>
@@ -1425,11 +1327,11 @@
       <c r="D1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>2</v>
@@ -1447,30 +1349,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="13" customFormat="1" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="11" customFormat="1" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="G2" s="14" t="s">
+      <c r="F2" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -1514,7 +1416,7 @@
         <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>25</v>
@@ -1577,7 +1479,7 @@
       <c r="D16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>112</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -1588,7 +1490,7 @@
       <c r="D17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>113</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -1599,7 +1501,7 @@
       <c r="D18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>114</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -1610,7 +1512,7 @@
       <c r="D19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>115</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -1621,7 +1523,7 @@
       <c r="D20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>116</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -1632,7 +1534,7 @@
       <c r="D21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>117</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -1649,13 +1551,13 @@
       <c r="D22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="69" x14ac:dyDescent="0.3">
       <c r="D23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1666,7 +1568,7 @@
       <c r="D24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1674,7 +1576,7 @@
       <c r="D25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1685,7 +1587,7 @@
       <c r="D26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1693,7 +1595,7 @@
       <c r="D27" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1704,7 +1606,7 @@
       <c r="D28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1712,7 +1614,7 @@
       <c r="D29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1723,7 +1625,7 @@
       <c r="D30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1734,7 +1636,7 @@
       <c r="D31" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1745,11 +1647,11 @@
       <c r="D32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>137</v>
       </c>
@@ -1760,20 +1662,20 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
       <c r="D34" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
       <c r="D35" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>140</v>
       </c>
@@ -1781,12 +1683,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D37" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>143</v>
       </c>
@@ -1797,12 +1699,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D39" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>144</v>
       </c>
@@ -1810,17 +1712,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D41" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D42" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>145</v>
       </c>
@@ -1828,17 +1730,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D44" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D45" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>146</v>
       </c>
@@ -1846,12 +1748,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D47" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D48" s="3" t="s">
         <v>59</v>
       </c>
@@ -1897,7 +1799,7 @@
         <v>149</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
@@ -1955,7 +1857,7 @@
     </row>
     <row r="63" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D63" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
@@ -1969,17 +1871,17 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D65" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D66" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>158</v>
       </c>
@@ -1990,12 +1892,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D68" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>160</v>
       </c>
@@ -2003,74 +1905,74 @@
         <v>87</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D70" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="D71" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D72" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="D73" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="D74" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D75" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D77" s="3"/>
-      <c r="F77" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="D78" s="3"/>
-      <c r="F78" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D79" s="3"/>
-      <c r="F79" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D80" s="3"/>
-      <c r="F80" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D81" s="3"/>
-      <c r="F81" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2084,7 +1986,7 @@
       <c r="D82" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="F82" s="2" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2092,7 +1994,7 @@
       <c r="D83" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="F83" s="2" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2100,7 +2002,7 @@
       <c r="D84" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="F84" s="2" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2108,7 +2010,7 @@
       <c r="D85" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="F85" s="2" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2116,7 +2018,7 @@
       <c r="D86" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="F86" s="2" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2124,7 +2026,7 @@
       <c r="D87" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="F87" s="2" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2132,7 +2034,7 @@
       <c r="D88" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="F88" s="2" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2140,7 +2042,7 @@
       <c r="D89" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="F89" s="2" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2148,7 +2050,7 @@
       <c r="D90" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="F90" s="2" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2170,39 +2072,39 @@
     </row>
     <row r="93" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D93" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D94" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D95" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E95" s="2" t="s">
-        <v>180</v>
+      <c r="F95" s="2" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D96" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="97" spans="4:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="D97" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="98" spans="4:4" ht="41.4" x14ac:dyDescent="0.25">

--- a/src/events.xlsx
+++ b/src/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\azulon\cluedo\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D8C72A-39C1-4B8E-BE97-23BC02BA0961}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E977CBF4-3019-43B0-B26C-CF13F4D31FBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="190">
   <si>
     <t>ID in</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>row</t>
-  </si>
-  <si>
-    <t>condition</t>
   </si>
   <si>
     <t>precommands</t>
@@ -272,11 +269,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The first is Mr Andrew Clementine.
-A man known to spot details most fine.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">You've never seen him without his coffee cup.
 Or asleep, for that matter. He's constantly up.
 </t>
@@ -287,31 +279,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The second's - you shudder - the Site Director.
-The antithesis of a conscientious objector.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">They say just one glare is enough to dissever.
 A "trip" to her office will change you forever.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The third's... you're not sure. One of the twins.
-Either Barry or Gary. Does it matter? They're kin.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">They're both due promotions, en route to the top.
 You remember when Gary's job was a mop.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The fourth's Leia Sky, the security guard.
-She always greets you when you beep your card.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Her visor obscures her, but just underneath
 You know there's a cheery smile rearing its teeth.
 </t>
@@ -319,11 +296,6 @@
   <si>
     <t xml:space="preserve">Whoever killed it - O5-1 - it's not her.
 A dark enough day just cannot occur.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The fifth's the new intern, Jamey-James Blood!
-The young Operator's a bit of a spud.
 </t>
   </si>
   <si>
@@ -453,11 +425,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The third: exposure to something the mind won't comprehend.
-Berryman-Langford brings a swift end.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">The fourth: a teddy bear came, seeking new parts
 For a child it was making by a gruesome art.
 </t>
@@ -472,11 +439,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">"Obviously right. The chest has been crushed
-The bones and organs inside have been mushed.
-</t>
-  </si>
-  <si>
     <t>Vehicular manslaughter</t>
   </si>
   <si>
@@ -635,9 +597,6 @@
     <t>night_sky</t>
   </si>
   <si>
-    <t>(might have to duplicate this one with different appears-ifs and different id pointers instead of having the checks in the next section)</t>
-  </si>
-  <si>
     <t>Body surrounded</t>
   </si>
   <si>
@@ -697,11 +656,6 @@
     <t>alex_explain_2</t>
   </si>
   <si>
-    <t xml:space="preserve">As if O5-1 has been pinned to a wall,
-While someone in front put the pedal to floor."
-</t>
-  </si>
-  <si>
     <t>ochre_confirm</t>
   </si>
   <si>
@@ -714,16 +668,10 @@
     <t>ID of this FRAME. The current frame lasts until the next ID.</t>
   </si>
   <si>
-    <t>A LINE to be said in the current FRAME. The current line lasts until the next line, or the end of the frame.</t>
-  </si>
-  <si>
     <t>When the OPTION is clicked, advance to the FRAME with this ID.</t>
   </si>
   <si>
     <t>If this is the last LINE of the FRAME, these OPTIONS will appear. If blank, there will be a single "Next" option.</t>
-  </si>
-  <si>
-    <t>`</t>
   </si>
   <si>
     <t xml:space="preserve">She's really good fun, a practical joker!
@@ -775,7 +723,83 @@
 </t>
   </si>
   <si>
-    <t>The OPTION will only appear if this condition is met. If a LINE has no options that will appear, it will not appear at all.</t>
+    <t>A LINE to be said in the current FRAME. The current line lasts until the next line, or the end of the frame. The line will not appear if it has no OPTIONS that appear.</t>
+  </si>
+  <si>
+    <t>The OPTION will only appear if this condition is met. An option with no condition will always appear.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The first's the new intern, Jamey-James Blood!
+The young Operator's a bit of a spud.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The second is Mr Andrew Clementine.
+A man known for spotting details most fine.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The third is - you shudder - the Site Director.
+The antithesis of a conscientious objector.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The fourth's... you're not sure. One of the twins.
+Either Barry or Gary. Does it matter? They're kin.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The fifth's Leia Sky, the security guard.
+She always greets you when you beep your card.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The third: exposure to something you can't comprehend.
+Berryman-Langford brings a swift end.
+</t>
+  </si>
+  <si>
+    <t>aic.chosen</t>
+  </si>
+  <si>
+    <t>oncommands</t>
+  </si>
+  <si>
+    <t>aic.chosen_method = "car"</t>
+  </si>
+  <si>
+    <t>aic.chosen_method = "vase"</t>
+  </si>
+  <si>
+    <t>aic.chosen_method = "bl"</t>
+  </si>
+  <si>
+    <t>aic.chosen_method = "bear"</t>
+  </si>
+  <si>
+    <t>aic.chosen_method = "pizza"</t>
+  </si>
+  <si>
+    <t>aic.chosen_method = "choke"</t>
+  </si>
+  <si>
+    <t>Commands to be run when this option is selected, but before the next frame's precommands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Obviously right. The chest has been crushed,
+The bones and organs inside have been mushed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As if O5-1 had been pinned to a wall,
+While someone in front put the pedal to floor."
+</t>
+  </si>
+  <si>
+    <t>Commands to be run before any LINES in this FRAME are rendered. Only first row of frame, ignores 'Appears If'.</t>
+  </si>
+  <si>
+    <t>Commands to be run after all LINES in this FRAME are rendered. Only first row of frame, ignores 'Appears If'.</t>
   </si>
 </sst>
 </file>
@@ -898,38 +922,38 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1291,47 +1315,47 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="61.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="38.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.77734375" style="4" customWidth="1"/>
-    <col min="9" max="11" width="25.88671875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="19.88671875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="61.6640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="32.88671875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="38.88671875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="22.77734375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="6.77734375" style="11" customWidth="1"/>
+    <col min="9" max="11" width="34.88671875" style="9" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>2</v>
@@ -1346,780 +1370,935 @@
         <v>5</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="11" customFormat="1" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D12" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D21" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D23" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D24" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D25" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D26" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D27" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D28" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D30" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D32" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D34" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D39" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D40" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D42" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D44" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D46" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D47" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D49" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D50" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D52" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D53" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D55" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D56" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A57" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D58" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D59" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A60" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D61" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D62" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A63" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A64" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D65" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D66" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A67" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D68" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A69" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D70" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D71" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A72" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D73" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A74" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D75" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D76" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D77" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="D78" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="D79" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D80" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A81" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="K81" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D82" s="9"/>
+      <c r="E82" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="K82" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="D83" s="9"/>
+      <c r="E83" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="K83" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D84" s="9"/>
+      <c r="E84" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="K84" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D85" s="9"/>
+      <c r="E85" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="K85" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D86" s="9"/>
+      <c r="E86" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="K86" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A87" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D88" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D89" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F89" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D90" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F90" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D91" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D92" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D93" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="D94" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F94" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D95" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F95" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D96" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A97" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D98" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F98" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D99" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F99" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D100" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D101" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="F101" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D102" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D12" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D15" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" ht="69" x14ac:dyDescent="0.3">
-      <c r="D23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D34" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D35" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="D37" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="D39" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="D41" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="D42" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="D44" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="D45" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="D47" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="D48" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="D50" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="D51" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="D53" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="D54" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="D56" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="D57" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="D60" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="D61" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="D63" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="D65" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="D66" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="D68" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="D70" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="D71" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="D72" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="D73" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="D74" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="D75" s="3" t="s">
+    </row>
+    <row r="103" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D103" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="D76" s="3" t="s">
+    <row r="104" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D104" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D77" s="3"/>
-      <c r="E77" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="D78" s="3"/>
-      <c r="E78" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D79" s="3"/>
-      <c r="E79" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D80" s="3"/>
-      <c r="E80" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D81" s="3"/>
-      <c r="E81" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A82" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="D83" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="D84" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="D85" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="D86" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="D87" s="3" t="s">
+    </row>
+    <row r="105" spans="1:6" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="D105" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="D88" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="D89" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="D90" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="D91" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A92" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="D93" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="D94" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="D95" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="D96" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="97" spans="4:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="D97" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="98" spans="4:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="D98" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="99" spans="4:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="D99" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="100" spans="4:4" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="D100" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/src/events.xlsx
+++ b/src/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\azulon\cluedo\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9844E603-DBC3-4207-A306-FE5974CFE2B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CE5B3B-4538-4849-8F94-6FF360EF1346}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="233">
   <si>
     <t>ID in</t>
   </si>
@@ -641,9 +641,6 @@
 </t>
   </si>
   <si>
-    <t>CSS class for this LINE.</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;char alex|I can narrow it down to six possibilities.
 It's up to you to determine which one it be.&gt;
 </t>
@@ -796,15 +793,6 @@
     <t>I need some time to myself</t>
   </si>
   <si>
-    <t>optclass</t>
-  </si>
-  <si>
-    <t>lineclass</t>
-  </si>
-  <si>
-    <t>CSS class for this OPTION.</t>
-  </si>
-  <si>
     <t>ochre_ok_loc</t>
   </si>
   <si>
@@ -959,13 +947,19 @@
   </si>
   <si>
     <t>aic.aic.vars.chosen_method = "choke"</t>
+  </si>
+  <si>
+    <t>oc</t>
+  </si>
+  <si>
+    <t>lc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -992,13 +986,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Verdana Pro"/>
-      <family val="2"/>
-    </font>
-    <font>
       <i/>
       <sz val="9"/>
       <name val="Verdana Pro"/>
@@ -1016,6 +1003,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Verdana Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Verdana Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Verdana Pro"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1079,27 +1085,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1114,17 +1114,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1518,58 +1530,58 @@
   <dimension ref="A1:M123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="G112" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M1:M1048576"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="65.44140625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="32.88671875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="33.77734375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="22.77734375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="6.77734375" style="11" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" style="11" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" style="9" customWidth="1"/>
-    <col min="11" max="13" width="34.88671875" style="9" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="19.88671875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="65.44140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="4" style="14" customWidth="1"/>
+    <col min="6" max="6" width="32.88671875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="33.77734375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="22.77734375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="6.77734375" style="9" customWidth="1"/>
+    <col min="11" max="13" width="34.88671875" style="7" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="16" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>183</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>4</v>
@@ -1585,1133 +1597,1129 @@
       <c r="A2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="12"/>
       <c r="D2" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>185</v>
-      </c>
+      <c r="J2" s="3"/>
       <c r="K2" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="I4" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="I6" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="I8" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="I10" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="I11" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="I14" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="I16" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D17" s="10" t="s">
+    <row r="17" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="H17" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="I21" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D18" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="10" t="s">
+    <row r="22" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="I22" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="10" t="s">
+    <row r="23" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D24" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D25" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D26" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D27" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D28" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D29" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D31" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D33" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D35" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D40" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D41" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D43" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D47" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D48" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D50" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D51" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="D53" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D54" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="D56" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D57" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D59" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D60" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D62" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D63" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D66" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D67" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D69" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A70" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="D71" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D72" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D74" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A75" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D76" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D77" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D78" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="D79" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D80" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D81" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M82" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="D83" s="7"/>
+      <c r="F83" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M83" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="D84" s="7"/>
+      <c r="F84" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M84" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="D85" s="7"/>
+      <c r="F85" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M85" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="D86" s="7"/>
+      <c r="F86" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M86" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="D87" s="7"/>
+      <c r="F87" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M87" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A88" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H88" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D20" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="10" t="s">
+      <c r="K88" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="D89" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="D90" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H90" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D21" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="10" t="s">
+    </row>
+    <row r="91" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D91" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H91" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D22" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="10" t="s">
+    </row>
+    <row r="92" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="D92" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H92" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D24" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D25" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D26" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="10" t="s">
+    </row>
+    <row r="93" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="D93" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="D94" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H94" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="D95" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H95" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D96" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H96" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D97" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A98" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I98" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A99" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D100" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H100" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D101" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H101" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D102" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H102" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="D103" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I103" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A104" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D105" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D106" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I106" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A107" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D108" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D109" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="I109" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="G26" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D27" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="10" t="s">
+    </row>
+    <row r="110" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A110" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D111" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="D112" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="I112" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="G27" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D28" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="10" t="s">
+    </row>
+    <row r="113" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A113" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="D114" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="D115" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G115" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="I115" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="F116" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G116" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="I116" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F117" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G117" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="I117" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="F118" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G118" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="H118" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="I118" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="F119" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G119" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="H119" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="I119" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="F120" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G120" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="H120" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="I120" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="F121" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G121" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="H121" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="I121" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F122" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G122" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="I122" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F123" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G123" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="I123" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D29" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="9"/>
-    </row>
-    <row r="31" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D31" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D33" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D35" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D40" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D41" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D43" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D45" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D47" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D48" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A49" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D50" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D51" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="D53" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D54" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="D56" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D57" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D59" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D60" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A61" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D62" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D63" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A64" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A65" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D66" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D67" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G67" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A68" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D69" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="G69" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A70" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="D71" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D72" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="G72" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="69" x14ac:dyDescent="0.3">
-      <c r="A73" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D74" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G74" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A75" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D76" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D77" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D78" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="D79" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D80" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D81" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A82" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G82" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="M82" s="9" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D83" s="9"/>
-      <c r="E83" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G83" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="M83" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="D84" s="9"/>
-      <c r="E84" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G84" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="M84" s="9" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D85" s="9"/>
-      <c r="E85" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G85" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="M85" s="9" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D86" s="9"/>
-      <c r="E86" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G86" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="M86" s="9" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D87" s="9"/>
-      <c r="E87" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G87" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="M87" s="9" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A88" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="F88" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="K88" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="D89" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="F89" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="D90" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="F90" s="10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D91" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="F91" s="10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="D92" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="F92" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="D93" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="F93" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="D94" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="F94" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="D95" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="F95" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D96" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="F96" s="10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D97" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="G97" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A98" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G98" s="9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A99" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="F99" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D100" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="F100" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D101" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="F101" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D102" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F102" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="D103" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="G103" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A104" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D105" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D106" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="G106" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A107" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D107" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D108" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D109" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G109" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A110" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D110" s="10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D111" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="D112" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="G112" s="9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A113" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="D113" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="D114" s="10" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="D115" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="E115" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="G115" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="J115" s="9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="E116" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G116" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="J116" s="9" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E117" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="G117" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="J117" s="9" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="E118" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="F118" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="G118" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="J118" s="9" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="E119" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="F119" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="G119" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="J119" s="9" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="E120" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="F120" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="G120" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="J120" s="9" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="E121" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="F121" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="G121" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="J121" s="9" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E122" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="G122" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="J122" s="9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E123" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="G123" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="J123" s="9" t="s">
-        <v>227</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:C2"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A3:A1048576">
     <cfRule type="expression" dxfId="4" priority="4">
       <formula>MOD(COUNTA($A$3:$A3),2)=0</formula>
